--- a/vendbees_app/ventory_sheet.xlsx
+++ b/vendbees_app/ventory_sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="2" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Vendor_Master'!$A$2:$A$119</definedName>
   </definedNames>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
     <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="0" r:id="rId11"/>
   </pivotCaches>
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,6 +112,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -153,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,6 +246,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -258,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,8 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -316,20 +334,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -415,8 +434,10 @@
       <tx>
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
+              <a:rPr lang="en-IN"/>
               <a:t>None</a:t>
             </a:r>
           </a:p>
@@ -430,29 +451,6 @@
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
-      <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
     <plotArea>
       <layout/>
@@ -490,7 +488,7 @@
               <strCache>
                 <ptCount val="9"/>
                 <pt idx="0">
-                  <v>#SPILL!</v>
+                  <v>#VALUE!</v>
                 </pt>
                 <pt idx="1">
                   <v>P004</v>
@@ -571,7 +569,7 @@
               <strCache>
                 <ptCount val="9"/>
                 <pt idx="0">
-                  <v>#SPILL!</v>
+                  <v>#VALUE!</v>
                 </pt>
                 <pt idx="1">
                   <v>P004</v>
@@ -652,7 +650,7 @@
               <strCache>
                 <ptCount val="9"/>
                 <pt idx="0">
-                  <v>#SPILL!</v>
+                  <v>#VALUE!</v>
                 </pt>
                 <pt idx="1">
                   <v>P004</v>
@@ -722,7 +720,7 @@
               <strCache>
                 <ptCount val="9"/>
                 <pt idx="0">
-                  <v>#SPILL!</v>
+                  <v>#VALUE!</v>
                 </pt>
                 <pt idx="1">
                   <v>P004</v>
@@ -3303,17 +3301,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Machine_ID</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="43" t="inlineStr">
         <is>
           <t>Product_ID</t>
         </is>
       </c>
-      <c r="C1" s="44" t="inlineStr">
+      <c r="C1" s="43" t="inlineStr">
         <is>
           <t>Current_Stock</t>
         </is>
@@ -3376,18 +3374,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>VM001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>None</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3482,12 +3475,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="inlineStr">
+      <c r="A2" s="40" t="inlineStr">
         <is>
           <t xml:space="preserve">CHIPS </t>
         </is>
       </c>
-      <c r="B2" s="42" t="n"/>
+      <c r="B2" s="40" t="n"/>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -3503,8 +3496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="n"/>
-      <c r="B3" s="42" t="inlineStr">
+      <c r="A3" s="39" t="n"/>
+      <c r="B3" s="40" t="inlineStr">
         <is>
           <t>P001</t>
         </is>
@@ -3532,18 +3525,18 @@
         <v>0.05</v>
       </c>
       <c r="I3" s="25" t="n"/>
-      <c r="J3" s="37" t="n">
+      <c r="J3" s="35" t="n">
         <v>8901491101837</v>
       </c>
-      <c r="K3" s="35" t="inlineStr">
+      <c r="K3" s="27" t="inlineStr">
         <is>
           <t>Quantity tb updated - Vishwathi</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="43" t="n"/>
-      <c r="B4" s="42" t="inlineStr">
+      <c r="A4" s="39" t="n"/>
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>P002</t>
         </is>
@@ -3571,13 +3564,13 @@
         <v>0.05</v>
       </c>
       <c r="I4" s="25" t="n"/>
-      <c r="J4" s="37" t="n">
+      <c r="J4" s="35" t="n">
         <v>8901491101844</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43" t="n"/>
-      <c r="B5" s="42" t="inlineStr">
+      <c r="A5" s="39" t="n"/>
+      <c r="B5" s="40" t="inlineStr">
         <is>
           <t>P003</t>
         </is>
@@ -3605,11 +3598,11 @@
         <v>0.05</v>
       </c>
       <c r="I5" s="25" t="n"/>
-      <c r="J5" s="37" t="n"/>
+      <c r="J5" s="35" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="n"/>
-      <c r="B6" s="42" t="inlineStr">
+      <c r="A6" s="39" t="n"/>
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>P004</t>
         </is>
@@ -3637,13 +3630,13 @@
         <v>0.05</v>
       </c>
       <c r="I6" s="25" t="n"/>
-      <c r="J6" s="37" t="n">
+      <c r="J6" s="35" t="n">
         <v>8901491101820</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="n"/>
-      <c r="B7" s="42" t="inlineStr">
+      <c r="A7" s="39" t="n"/>
+      <c r="B7" s="40" t="inlineStr">
         <is>
           <t>P005</t>
         </is>
@@ -3671,13 +3664,13 @@
         <v>0.05</v>
       </c>
       <c r="I7" s="25" t="n"/>
-      <c r="J7" s="37" t="n">
+      <c r="J7" s="35" t="n">
         <v>8901491504782</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="n"/>
-      <c r="B8" s="42" t="inlineStr">
+      <c r="A8" s="39" t="n"/>
+      <c r="B8" s="40" t="inlineStr">
         <is>
           <t>P006</t>
         </is>
@@ -3705,11 +3698,11 @@
         <v>0.05</v>
       </c>
       <c r="I8" s="25" t="n"/>
-      <c r="J8" s="37" t="n"/>
+      <c r="J8" s="35" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="n"/>
-      <c r="B9" s="42" t="inlineStr">
+      <c r="A9" s="39" t="n"/>
+      <c r="B9" s="40" t="inlineStr">
         <is>
           <t>P007</t>
         </is>
@@ -3737,13 +3730,13 @@
         <v>0.05</v>
       </c>
       <c r="I9" s="25" t="n"/>
-      <c r="J9" s="37" t="n">
+      <c r="J9" s="35" t="n">
         <v>8901491001809</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="n"/>
-      <c r="B10" s="42" t="inlineStr">
+      <c r="A10" s="39" t="n"/>
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>P008</t>
         </is>
@@ -3771,11 +3764,11 @@
         <v>0.05</v>
       </c>
       <c r="I10" s="25" t="n"/>
-      <c r="J10" s="37" t="n"/>
+      <c r="J10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="43" t="n"/>
-      <c r="B11" s="42" t="inlineStr">
+      <c r="A11" s="39" t="n"/>
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>P009</t>
         </is>
@@ -3803,14 +3796,14 @@
         <v>0.05</v>
       </c>
       <c r="I11" s="25" t="n"/>
-      <c r="J11" s="37" t="n">
+      <c r="J11" s="35" t="n">
         <v>8906090572118</v>
       </c>
       <c r="M11" s="28" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="43" t="n"/>
-      <c r="B12" s="42" t="inlineStr">
+      <c r="A12" s="39" t="n"/>
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>P010</t>
         </is>
@@ -3838,13 +3831,13 @@
         <v>0.05</v>
       </c>
       <c r="I12" s="25" t="n"/>
-      <c r="J12" s="37" t="n">
+      <c r="J12" s="35" t="n">
         <v>8906090570800</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="43" t="n"/>
-      <c r="B13" s="42" t="inlineStr">
+      <c r="A13" s="39" t="n"/>
+      <c r="B13" s="40" t="inlineStr">
         <is>
           <t>P011</t>
         </is>
@@ -3872,11 +3865,11 @@
         <v>0.05</v>
       </c>
       <c r="I13" s="25" t="n"/>
-      <c r="J13" s="37" t="n"/>
+      <c r="J13" s="35" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="43" t="n"/>
-      <c r="B14" s="42" t="inlineStr">
+      <c r="A14" s="39" t="n"/>
+      <c r="B14" s="40" t="inlineStr">
         <is>
           <t>P012</t>
         </is>
@@ -3904,12 +3897,12 @@
         <v>0.05</v>
       </c>
       <c r="I14" s="25" t="n"/>
-      <c r="J14" s="37" t="n"/>
+      <c r="J14" s="35" t="n"/>
       <c r="M14" s="29" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="n"/>
-      <c r="B15" s="42" t="inlineStr">
+      <c r="A15" s="39" t="n"/>
+      <c r="B15" s="40" t="inlineStr">
         <is>
           <t>P013</t>
         </is>
@@ -3937,11 +3930,11 @@
         <v>0.05</v>
       </c>
       <c r="I15" s="25" t="n"/>
-      <c r="J15" s="37" t="n"/>
+      <c r="J15" s="35" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="43" t="n"/>
-      <c r="B16" s="42" t="inlineStr">
+      <c r="A16" s="39" t="n"/>
+      <c r="B16" s="40" t="inlineStr">
         <is>
           <t>P014</t>
         </is>
@@ -3969,13 +3962,13 @@
         <v>0.05</v>
       </c>
       <c r="I16" s="25" t="n"/>
-      <c r="J16" s="37" t="n">
+      <c r="J16" s="35" t="n">
         <v>8906090575263</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="43" t="n"/>
-      <c r="B17" s="42" t="inlineStr">
+      <c r="A17" s="39" t="n"/>
+      <c r="B17" s="40" t="inlineStr">
         <is>
           <t>P015</t>
         </is>
@@ -4003,13 +3996,13 @@
         <v>0.05</v>
       </c>
       <c r="I17" s="25" t="n"/>
-      <c r="J17" s="37" t="n">
+      <c r="J17" s="35" t="n">
         <v>8906090572149</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="43" t="n"/>
-      <c r="B18" s="42" t="inlineStr">
+      <c r="A18" s="39" t="n"/>
+      <c r="B18" s="40" t="inlineStr">
         <is>
           <t>P016</t>
         </is>
@@ -4037,13 +4030,13 @@
         <v>0.05</v>
       </c>
       <c r="I18" s="25" t="n"/>
-      <c r="J18" s="37" t="n">
+      <c r="J18" s="35" t="n">
         <v>8906090574495</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="43" t="n"/>
-      <c r="B19" s="42" t="inlineStr">
+      <c r="A19" s="39" t="n"/>
+      <c r="B19" s="40" t="inlineStr">
         <is>
           <t>P017</t>
         </is>
@@ -4071,13 +4064,13 @@
         <v>0.05</v>
       </c>
       <c r="I19" s="25" t="n"/>
-      <c r="J19" s="37" t="n">
+      <c r="J19" s="35" t="n">
         <v>8906090576253</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="43" t="n"/>
-      <c r="B20" s="42" t="inlineStr">
+      <c r="A20" s="39" t="n"/>
+      <c r="B20" s="40" t="inlineStr">
         <is>
           <t>P018</t>
         </is>
@@ -4105,11 +4098,11 @@
         <v>0.05</v>
       </c>
       <c r="I20" s="25" t="n"/>
-      <c r="J20" s="37" t="n"/>
+      <c r="J20" s="35" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="n"/>
-      <c r="B21" s="42" t="inlineStr">
+      <c r="A21" s="39" t="n"/>
+      <c r="B21" s="40" t="inlineStr">
         <is>
           <t>P019</t>
         </is>
@@ -4137,11 +4130,11 @@
         <v>0.05</v>
       </c>
       <c r="I21" s="25" t="n"/>
-      <c r="J21" s="37" t="n"/>
+      <c r="J21" s="35" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="43" t="n"/>
-      <c r="B22" s="42" t="inlineStr">
+      <c r="A22" s="39" t="n"/>
+      <c r="B22" s="40" t="inlineStr">
         <is>
           <t>P020</t>
         </is>
@@ -4169,11 +4162,11 @@
         <v>0.05</v>
       </c>
       <c r="I22" s="25" t="n"/>
-      <c r="J22" s="37" t="n"/>
+      <c r="J22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="n"/>
-      <c r="B23" s="42" t="inlineStr">
+      <c r="A23" s="39" t="n"/>
+      <c r="B23" s="40" t="inlineStr">
         <is>
           <t>P021</t>
         </is>
@@ -4201,11 +4194,11 @@
         <v>0.05</v>
       </c>
       <c r="I23" s="25" t="n"/>
-      <c r="J23" s="37" t="n"/>
+      <c r="J23" s="35" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="43" t="n"/>
-      <c r="B24" s="42" t="inlineStr">
+      <c r="A24" s="39" t="n"/>
+      <c r="B24" s="40" t="inlineStr">
         <is>
           <t>P022</t>
         </is>
@@ -4233,11 +4226,11 @@
         <v>0.05</v>
       </c>
       <c r="I24" s="25" t="n"/>
-      <c r="J24" s="37" t="n"/>
+      <c r="J24" s="35" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="43" t="n"/>
-      <c r="B25" s="42" t="inlineStr">
+      <c r="A25" s="39" t="n"/>
+      <c r="B25" s="40" t="inlineStr">
         <is>
           <t>P023</t>
         </is>
@@ -4265,13 +4258,13 @@
         <v>0.05</v>
       </c>
       <c r="I25" s="25" t="n"/>
-      <c r="J25" s="37" t="n">
+      <c r="J25" s="35" t="n">
         <v>8901491366052</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="43" t="n"/>
-      <c r="B26" s="42" t="inlineStr">
+      <c r="A26" s="39" t="n"/>
+      <c r="B26" s="40" t="inlineStr">
         <is>
           <t>P024</t>
         </is>
@@ -4299,13 +4292,13 @@
         <v>0.05</v>
       </c>
       <c r="I26" s="25" t="n"/>
-      <c r="J26" s="37" t="n">
+      <c r="J26" s="35" t="n">
         <v>8901491100533</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="43" t="n"/>
-      <c r="B27" s="42" t="inlineStr">
+      <c r="A27" s="39" t="n"/>
+      <c r="B27" s="40" t="inlineStr">
         <is>
           <t>P025</t>
         </is>
@@ -4333,11 +4326,11 @@
         <v>0.05</v>
       </c>
       <c r="I27" s="25" t="n"/>
-      <c r="J27" s="37" t="n"/>
+      <c r="J27" s="35" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="43" t="n"/>
-      <c r="B28" s="42" t="inlineStr">
+      <c r="A28" s="39" t="n"/>
+      <c r="B28" s="40" t="inlineStr">
         <is>
           <t>P026</t>
         </is>
@@ -4365,13 +4358,13 @@
         <v>0.05</v>
       </c>
       <c r="I28" s="25" t="n"/>
-      <c r="J28" s="37" t="n">
+      <c r="J28" s="35" t="n">
         <v>8901491103442</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="43" t="n"/>
-      <c r="B29" s="42" t="inlineStr">
+      <c r="A29" s="39" t="n"/>
+      <c r="B29" s="40" t="inlineStr">
         <is>
           <t>P027</t>
         </is>
@@ -4399,13 +4392,13 @@
         <v>0.05</v>
       </c>
       <c r="I29" s="25" t="n"/>
-      <c r="J29" s="37" t="n">
+      <c r="J29" s="35" t="n">
         <v>8901491103084</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="43" t="n"/>
-      <c r="B30" s="42" t="inlineStr">
+      <c r="A30" s="39" t="n"/>
+      <c r="B30" s="40" t="inlineStr">
         <is>
           <t>P028</t>
         </is>
@@ -4433,13 +4426,13 @@
         <v>0.05</v>
       </c>
       <c r="I30" s="25" t="n"/>
-      <c r="J30" s="37" t="n">
+      <c r="J30" s="35" t="n">
         <v>8901491100519</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="43" t="n"/>
-      <c r="B31" s="42" t="inlineStr">
+      <c r="A31" s="39" t="n"/>
+      <c r="B31" s="40" t="inlineStr">
         <is>
           <t>P029</t>
         </is>
@@ -4467,13 +4460,13 @@
         <v>0.05</v>
       </c>
       <c r="I31" s="25" t="n"/>
-      <c r="J31" s="37" t="n">
+      <c r="J31" s="35" t="n">
         <v>8906066701115</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="43" t="n"/>
-      <c r="B32" s="42" t="inlineStr">
+      <c r="A32" s="39" t="n"/>
+      <c r="B32" s="40" t="inlineStr">
         <is>
           <t>P030</t>
         </is>
@@ -4501,11 +4494,11 @@
         <v>0.05</v>
       </c>
       <c r="I32" s="25" t="n"/>
-      <c r="J32" s="37" t="n"/>
+      <c r="J32" s="35" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="43" t="n"/>
-      <c r="B33" s="42" t="inlineStr">
+      <c r="A33" s="39" t="n"/>
+      <c r="B33" s="40" t="inlineStr">
         <is>
           <t>P031</t>
         </is>
@@ -4533,13 +4526,13 @@
         <v>0.05</v>
       </c>
       <c r="I33" s="25" t="n"/>
-      <c r="J33" s="37" t="n">
+      <c r="J33" s="35" t="n">
         <v>8901725004903</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="43" t="n"/>
-      <c r="B34" s="42" t="inlineStr">
+      <c r="A34" s="39" t="n"/>
+      <c r="B34" s="40" t="inlineStr">
         <is>
           <t>P032</t>
         </is>
@@ -4567,13 +4560,13 @@
         <v>0.05</v>
       </c>
       <c r="I34" s="25" t="n"/>
-      <c r="J34" s="37" t="n">
+      <c r="J34" s="35" t="n">
         <v>8901725111649</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="43" t="n"/>
-      <c r="B35" s="42" t="inlineStr">
+      <c r="A35" s="39" t="n"/>
+      <c r="B35" s="40" t="inlineStr">
         <is>
           <t>P033</t>
         </is>
@@ -4601,13 +4594,13 @@
         <v>0.05</v>
       </c>
       <c r="I35" s="25" t="n"/>
-      <c r="J35" s="37" t="n">
+      <c r="J35" s="35" t="n">
         <v>8901725013790</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="43" t="n"/>
-      <c r="B36" s="42" t="inlineStr">
+      <c r="A36" s="39" t="n"/>
+      <c r="B36" s="40" t="inlineStr">
         <is>
           <t>P034</t>
         </is>
@@ -4635,13 +4628,13 @@
         <v>0.05</v>
       </c>
       <c r="I36" s="25" t="n"/>
-      <c r="J36" s="37" t="n">
+      <c r="J36" s="35" t="n">
         <v>8901725013721</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="43" t="n"/>
-      <c r="B37" s="42" t="inlineStr">
+      <c r="A37" s="39" t="n"/>
+      <c r="B37" s="40" t="inlineStr">
         <is>
           <t>P035</t>
         </is>
@@ -4669,11 +4662,11 @@
         <v>0.05</v>
       </c>
       <c r="I37" s="25" t="n"/>
-      <c r="J37" s="37" t="n"/>
+      <c r="J37" s="35" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="43" t="n"/>
-      <c r="B38" s="42" t="inlineStr">
+      <c r="A38" s="39" t="n"/>
+      <c r="B38" s="40" t="inlineStr">
         <is>
           <t>P036</t>
         </is>
@@ -4701,13 +4694,13 @@
         <v>0.05</v>
       </c>
       <c r="I38" s="25" t="n"/>
-      <c r="J38" s="37" t="n">
+      <c r="J38" s="35" t="n">
         <v>8909081007163</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="43" t="n"/>
-      <c r="B39" s="42" t="inlineStr">
+      <c r="A39" s="39" t="n"/>
+      <c r="B39" s="40" t="inlineStr">
         <is>
           <t>P037</t>
         </is>
@@ -4735,13 +4728,13 @@
         <v>0.05</v>
       </c>
       <c r="I39" s="25" t="n"/>
-      <c r="J39" s="37" t="n">
+      <c r="J39" s="35" t="n">
         <v>8901725004897</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="43" t="n"/>
-      <c r="B40" s="42" t="inlineStr">
+      <c r="A40" s="39" t="n"/>
+      <c r="B40" s="40" t="inlineStr">
         <is>
           <t>P038</t>
         </is>
@@ -4769,13 +4762,13 @@
         <v>0.05</v>
       </c>
       <c r="I40" s="25" t="n"/>
-      <c r="J40" s="37" t="n">
+      <c r="J40" s="35" t="n">
         <v>8901725013769</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="43" t="n"/>
-      <c r="B41" s="42" t="inlineStr">
+      <c r="A41" s="39" t="n"/>
+      <c r="B41" s="40" t="inlineStr">
         <is>
           <t>P039</t>
         </is>
@@ -4803,13 +4796,13 @@
         <v>0.05</v>
       </c>
       <c r="I41" s="25" t="n"/>
-      <c r="J41" s="37" t="n">
+      <c r="J41" s="35" t="n">
         <v>8901725013677</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="43" t="n"/>
-      <c r="B42" s="42" t="inlineStr">
+      <c r="A42" s="39" t="n"/>
+      <c r="B42" s="40" t="inlineStr">
         <is>
           <t>P040</t>
         </is>
@@ -4837,13 +4830,13 @@
         <v>0.05</v>
       </c>
       <c r="I42" s="25" t="n"/>
-      <c r="J42" s="37" t="n">
+      <c r="J42" s="35" t="n">
         <v>8901725007553</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="43" t="n"/>
-      <c r="B43" s="42" t="inlineStr">
+      <c r="A43" s="39" t="n"/>
+      <c r="B43" s="40" t="inlineStr">
         <is>
           <t>P041</t>
         </is>
@@ -4871,13 +4864,13 @@
         <v>0.05</v>
       </c>
       <c r="I43" s="25" t="n"/>
-      <c r="J43" s="37" t="n">
+      <c r="J43" s="35" t="n">
         <v>8901725117788</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="43" t="n"/>
-      <c r="B44" s="42" t="inlineStr">
+      <c r="A44" s="39" t="n"/>
+      <c r="B44" s="40" t="inlineStr">
         <is>
           <t>P042</t>
         </is>
@@ -4905,13 +4898,13 @@
         <v>0.05</v>
       </c>
       <c r="I44" s="25" t="n"/>
-      <c r="J44" s="37" t="n">
+      <c r="J44" s="35" t="n">
         <v>8901725111649</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="43" t="n"/>
-      <c r="B45" s="42" t="inlineStr">
+      <c r="A45" s="39" t="n"/>
+      <c r="B45" s="40" t="inlineStr">
         <is>
           <t>P043</t>
         </is>
@@ -4939,11 +4932,11 @@
         <v>0.05</v>
       </c>
       <c r="I45" s="25" t="n"/>
-      <c r="J45" s="37" t="n"/>
+      <c r="J45" s="35" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="43" t="n"/>
-      <c r="B46" s="42" t="inlineStr">
+      <c r="A46" s="39" t="n"/>
+      <c r="B46" s="40" t="inlineStr">
         <is>
           <t>P044</t>
         </is>
@@ -4971,13 +4964,13 @@
         <v>0.05</v>
       </c>
       <c r="I46" s="25" t="n"/>
-      <c r="J46" s="37" t="n">
+      <c r="J46" s="35" t="n">
         <v>8901491990028</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="26" t="n"/>
-      <c r="B47" s="42" t="inlineStr">
+      <c r="A47" s="41" t="n"/>
+      <c r="B47" s="40" t="inlineStr">
         <is>
           <t>P045</t>
         </is>
@@ -5005,33 +4998,33 @@
         <v>0.05</v>
       </c>
       <c r="I47" s="25" t="n"/>
-      <c r="J47" s="37" t="n">
+      <c r="J47" s="35" t="n">
         <v>8901491000192</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="41" t="inlineStr">
+      <c r="A48" s="42" t="inlineStr">
         <is>
           <t>BEVERAGE</t>
         </is>
       </c>
-      <c r="B48" s="41" t="inlineStr">
+      <c r="B48" s="42" t="inlineStr">
         <is>
           <t>P046</t>
         </is>
       </c>
-      <c r="C48" s="35" t="inlineStr">
+      <c r="C48" s="27" t="inlineStr">
         <is>
           <t>RUBY PISTA MILK</t>
         </is>
       </c>
-      <c r="D48" s="26" t="n">
+      <c r="D48" s="41" t="n">
         <v>22.75</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F48" s="35" t="inlineStr">
+      <c r="F48" s="27" t="inlineStr">
         <is>
           <t>180ML</t>
         </is>
@@ -5043,16 +5036,16 @@
         <v>0.05</v>
       </c>
       <c r="I48" s="20" t="n"/>
-      <c r="J48" s="37" t="n"/>
+      <c r="J48" s="35" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="43" t="n"/>
-      <c r="B49" s="42" t="inlineStr">
+      <c r="A49" s="39" t="n"/>
+      <c r="B49" s="40" t="inlineStr">
         <is>
           <t>P047</t>
         </is>
       </c>
-      <c r="C49" s="35" t="inlineStr">
+      <c r="C49" s="27" t="inlineStr">
         <is>
           <t>RUBY BADAM MILK</t>
         </is>
@@ -5063,7 +5056,7 @@
       <c r="E49" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F49" s="35" t="inlineStr">
+      <c r="F49" s="27" t="inlineStr">
         <is>
           <t>180ML</t>
         </is>
@@ -5075,16 +5068,16 @@
         <v>0.05</v>
       </c>
       <c r="I49" s="20" t="n"/>
-      <c r="J49" s="37" t="n"/>
+      <c r="J49" s="35" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="43" t="n"/>
-      <c r="B50" s="42" t="inlineStr">
+      <c r="A50" s="39" t="n"/>
+      <c r="B50" s="40" t="inlineStr">
         <is>
           <t>P048</t>
         </is>
       </c>
-      <c r="C50" s="35" t="inlineStr">
+      <c r="C50" s="27" t="inlineStr">
         <is>
           <t>RUBY ROSE MILK</t>
         </is>
@@ -5095,7 +5088,7 @@
       <c r="E50" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F50" s="35" t="inlineStr">
+      <c r="F50" s="27" t="inlineStr">
         <is>
           <t>180ML</t>
         </is>
@@ -5107,11 +5100,11 @@
         <v>0.05</v>
       </c>
       <c r="I50" s="20" t="n"/>
-      <c r="J50" s="37" t="n"/>
+      <c r="J50" s="35" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="43" t="n"/>
-      <c r="B51" s="42" t="inlineStr">
+      <c r="A51" s="39" t="n"/>
+      <c r="B51" s="40" t="inlineStr">
         <is>
           <t>P049</t>
         </is>
@@ -5139,13 +5132,13 @@
         <v>0.05</v>
       </c>
       <c r="I51" s="20" t="n"/>
-      <c r="J51" s="37" t="n">
+      <c r="J51" s="35" t="n">
         <v>8902979050906</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="43" t="n"/>
-      <c r="B52" s="42" t="inlineStr">
+      <c r="A52" s="39" t="n"/>
+      <c r="B52" s="40" t="inlineStr">
         <is>
           <t>P050</t>
         </is>
@@ -5173,13 +5166,13 @@
         <v>0.05</v>
       </c>
       <c r="I52" s="20" t="n"/>
-      <c r="J52" s="37" t="n">
+      <c r="J52" s="35" t="n">
         <v>8902979052399</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="43" t="n"/>
-      <c r="B53" s="42" t="inlineStr">
+      <c r="A53" s="39" t="n"/>
+      <c r="B53" s="40" t="inlineStr">
         <is>
           <t>P051</t>
         </is>
@@ -5207,11 +5200,11 @@
         <v>0.05</v>
       </c>
       <c r="I53" s="20" t="n"/>
-      <c r="J53" s="37" t="n"/>
+      <c r="J53" s="35" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="43" t="n"/>
-      <c r="B54" s="42" t="inlineStr">
+      <c r="A54" s="39" t="n"/>
+      <c r="B54" s="40" t="inlineStr">
         <is>
           <t>P052</t>
         </is>
@@ -5239,11 +5232,11 @@
         <v>0.05</v>
       </c>
       <c r="I54" s="20" t="n"/>
-      <c r="J54" s="37" t="n"/>
+      <c r="J54" s="35" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="43" t="n"/>
-      <c r="B55" s="42" t="inlineStr">
+      <c r="A55" s="39" t="n"/>
+      <c r="B55" s="40" t="inlineStr">
         <is>
           <t>P053</t>
         </is>
@@ -5271,13 +5264,13 @@
         <v>0.05</v>
       </c>
       <c r="I55" s="20" t="n"/>
-      <c r="J55" s="37" t="n">
+      <c r="J55" s="35" t="n">
         <v>8902979010559</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="43" t="n"/>
-      <c r="B56" s="42" t="inlineStr">
+      <c r="A56" s="39" t="n"/>
+      <c r="B56" s="40" t="inlineStr">
         <is>
           <t>P054</t>
         </is>
@@ -5305,13 +5298,13 @@
         <v>0.05</v>
       </c>
       <c r="I56" s="20" t="n"/>
-      <c r="J56" s="37" t="n">
+      <c r="J56" s="35" t="n">
         <v>8902979005326</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="43" t="n"/>
-      <c r="B57" s="42" t="inlineStr">
+      <c r="A57" s="39" t="n"/>
+      <c r="B57" s="40" t="inlineStr">
         <is>
           <t>P055</t>
         </is>
@@ -5339,13 +5332,13 @@
         <v>0.05</v>
       </c>
       <c r="I57" s="20" t="n"/>
-      <c r="J57" s="37" t="n">
+      <c r="J57" s="35" t="n">
         <v>8902979052412</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="43" t="n"/>
-      <c r="B58" s="42" t="inlineStr">
+      <c r="A58" s="39" t="n"/>
+      <c r="B58" s="40" t="inlineStr">
         <is>
           <t>P056</t>
         </is>
@@ -5373,13 +5366,13 @@
         <v>0.05</v>
       </c>
       <c r="I58" s="20" t="n"/>
-      <c r="J58" s="37" t="n">
+      <c r="J58" s="35" t="n">
         <v>8902979050883</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="43" t="n"/>
-      <c r="B59" s="42" t="inlineStr">
+      <c r="A59" s="39" t="n"/>
+      <c r="B59" s="40" t="inlineStr">
         <is>
           <t>P057</t>
         </is>
@@ -5407,13 +5400,13 @@
         <v>0.05</v>
       </c>
       <c r="I59" s="20" t="n"/>
-      <c r="J59" s="37" t="n">
+      <c r="J59" s="35" t="n">
         <v>8901071732598</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="43" t="n"/>
-      <c r="B60" s="42" t="inlineStr">
+      <c r="A60" s="39" t="n"/>
+      <c r="B60" s="40" t="inlineStr">
         <is>
           <t>P058</t>
         </is>
@@ -5441,13 +5434,13 @@
         <v>0.05</v>
       </c>
       <c r="I60" s="20" t="n"/>
-      <c r="J60" s="37" t="n">
+      <c r="J60" s="35" t="n">
         <v>8901071732468</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="43" t="n"/>
-      <c r="B61" s="42" t="inlineStr">
+      <c r="A61" s="39" t="n"/>
+      <c r="B61" s="40" t="inlineStr">
         <is>
           <t>P059</t>
         </is>
@@ -5475,11 +5468,11 @@
         <v>0.05</v>
       </c>
       <c r="I61" s="20" t="n"/>
-      <c r="J61" s="37" t="n"/>
+      <c r="J61" s="35" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="43" t="n"/>
-      <c r="B62" s="42" t="inlineStr">
+      <c r="A62" s="39" t="n"/>
+      <c r="B62" s="40" t="inlineStr">
         <is>
           <t>P060</t>
         </is>
@@ -5507,11 +5500,11 @@
         <v>0.05</v>
       </c>
       <c r="I62" s="20" t="n"/>
-      <c r="J62" s="37" t="n"/>
+      <c r="J62" s="35" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="43" t="n"/>
-      <c r="B63" s="42" t="inlineStr">
+      <c r="A63" s="39" t="n"/>
+      <c r="B63" s="40" t="inlineStr">
         <is>
           <t>P061</t>
         </is>
@@ -5539,11 +5532,11 @@
         <v>0.05</v>
       </c>
       <c r="I63" s="20" t="n"/>
-      <c r="J63" s="37" t="n"/>
+      <c r="J63" s="35" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="43" t="n"/>
-      <c r="B64" s="42" t="inlineStr">
+      <c r="A64" s="39" t="n"/>
+      <c r="B64" s="40" t="inlineStr">
         <is>
           <t>P062</t>
         </is>
@@ -5571,11 +5564,11 @@
         <v>0.05</v>
       </c>
       <c r="I64" s="20" t="n"/>
-      <c r="J64" s="37" t="n"/>
+      <c r="J64" s="35" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="43" t="n"/>
-      <c r="B65" s="42" t="inlineStr">
+      <c r="A65" s="39" t="n"/>
+      <c r="B65" s="40" t="inlineStr">
         <is>
           <t>P063</t>
         </is>
@@ -5603,11 +5596,11 @@
         <v>0.05</v>
       </c>
       <c r="I65" s="20" t="n"/>
-      <c r="J65" s="37" t="n"/>
+      <c r="J65" s="35" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="43" t="n"/>
-      <c r="B66" s="42" t="inlineStr">
+      <c r="A66" s="39" t="n"/>
+      <c r="B66" s="40" t="inlineStr">
         <is>
           <t>P064</t>
         </is>
@@ -5635,11 +5628,11 @@
         <v>0.05</v>
       </c>
       <c r="I66" s="20" t="n"/>
-      <c r="J66" s="37" t="n"/>
+      <c r="J66" s="35" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="43" t="n"/>
-      <c r="B67" s="42" t="inlineStr">
+      <c r="A67" s="39" t="n"/>
+      <c r="B67" s="40" t="inlineStr">
         <is>
           <t>P065</t>
         </is>
@@ -5667,11 +5660,11 @@
         <v>0.05</v>
       </c>
       <c r="I67" s="20" t="n"/>
-      <c r="J67" s="37" t="n"/>
+      <c r="J67" s="35" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="43" t="n"/>
-      <c r="B68" s="42" t="inlineStr">
+      <c r="A68" s="39" t="n"/>
+      <c r="B68" s="40" t="inlineStr">
         <is>
           <t>P066</t>
         </is>
@@ -5699,11 +5692,11 @@
         <v>0.05</v>
       </c>
       <c r="I68" s="20" t="n"/>
-      <c r="J68" s="37" t="n"/>
+      <c r="J68" s="35" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="43" t="n"/>
-      <c r="B69" s="42" t="inlineStr">
+      <c r="A69" s="39" t="n"/>
+      <c r="B69" s="40" t="inlineStr">
         <is>
           <t>P067</t>
         </is>
@@ -5731,11 +5724,11 @@
         <v>0.05</v>
       </c>
       <c r="I69" s="20" t="n"/>
-      <c r="J69" s="37" t="n"/>
+      <c r="J69" s="35" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="43" t="n"/>
-      <c r="B70" s="42" t="inlineStr">
+      <c r="A70" s="39" t="n"/>
+      <c r="B70" s="40" t="inlineStr">
         <is>
           <t>P068</t>
         </is>
@@ -5763,11 +5756,11 @@
         <v>0.05</v>
       </c>
       <c r="I70" s="20" t="n"/>
-      <c r="J70" s="37" t="n"/>
+      <c r="J70" s="35" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="43" t="n"/>
-      <c r="B71" s="42" t="inlineStr">
+      <c r="A71" s="39" t="n"/>
+      <c r="B71" s="40" t="inlineStr">
         <is>
           <t>P069</t>
         </is>
@@ -5795,11 +5788,11 @@
         <v>0.05</v>
       </c>
       <c r="I71" s="20" t="n"/>
-      <c r="J71" s="37" t="n"/>
+      <c r="J71" s="35" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="43" t="n"/>
-      <c r="B72" s="42" t="inlineStr">
+      <c r="A72" s="39" t="n"/>
+      <c r="B72" s="40" t="inlineStr">
         <is>
           <t>P070</t>
         </is>
@@ -5827,11 +5820,11 @@
         <v>0.05</v>
       </c>
       <c r="I72" s="20" t="n"/>
-      <c r="J72" s="37" t="n"/>
+      <c r="J72" s="35" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="43" t="n"/>
-      <c r="B73" s="42" t="inlineStr">
+      <c r="A73" s="39" t="n"/>
+      <c r="B73" s="40" t="inlineStr">
         <is>
           <t>P071</t>
         </is>
@@ -5859,11 +5852,11 @@
         <v>0.4</v>
       </c>
       <c r="I73" s="20" t="n"/>
-      <c r="J73" s="37" t="n"/>
+      <c r="J73" s="35" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="43" t="n"/>
-      <c r="B74" s="42" t="inlineStr">
+      <c r="A74" s="39" t="n"/>
+      <c r="B74" s="40" t="inlineStr">
         <is>
           <t>P072</t>
         </is>
@@ -5891,13 +5884,13 @@
         <v>0.4</v>
       </c>
       <c r="I74" s="20" t="n"/>
-      <c r="J74" s="37" t="n">
+      <c r="J74" s="35" t="n">
         <v>8901764061257</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="43" t="n"/>
-      <c r="B75" s="42" t="inlineStr">
+      <c r="A75" s="39" t="n"/>
+      <c r="B75" s="40" t="inlineStr">
         <is>
           <t>P073</t>
         </is>
@@ -5925,13 +5918,13 @@
         <v>0.4</v>
       </c>
       <c r="I75" s="20" t="n"/>
-      <c r="J75" s="37" t="n">
+      <c r="J75" s="35" t="n">
         <v>8901764011252</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="43" t="n"/>
-      <c r="B76" s="42" t="inlineStr">
+      <c r="A76" s="39" t="n"/>
+      <c r="B76" s="40" t="inlineStr">
         <is>
           <t>P074</t>
         </is>
@@ -5959,11 +5952,11 @@
         <v>0.4</v>
       </c>
       <c r="I76" s="20" t="n"/>
-      <c r="J76" s="37" t="n"/>
+      <c r="J76" s="35" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="43" t="n"/>
-      <c r="B77" s="42" t="inlineStr">
+      <c r="A77" s="39" t="n"/>
+      <c r="B77" s="40" t="inlineStr">
         <is>
           <t>P075</t>
         </is>
@@ -5991,18 +5984,18 @@
         <v>0.4</v>
       </c>
       <c r="I77" s="20" t="n"/>
-      <c r="J77" s="37" t="n">
+      <c r="J77" s="35" t="n">
         <v>8902080365043</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="43" t="n"/>
-      <c r="B78" s="42" t="inlineStr">
+      <c r="A78" s="39" t="n"/>
+      <c r="B78" s="40" t="inlineStr">
         <is>
           <t>P076</t>
         </is>
       </c>
-      <c r="C78" s="35" t="inlineStr">
+      <c r="C78" s="27" t="inlineStr">
         <is>
           <t>THUMBS UP TIN</t>
         </is>
@@ -6025,16 +6018,16 @@
         <v>0.4</v>
       </c>
       <c r="I78" s="20" t="n"/>
-      <c r="J78" s="37" t="n"/>
+      <c r="J78" s="35" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="43" t="n"/>
-      <c r="B79" s="42" t="inlineStr">
+      <c r="A79" s="39" t="n"/>
+      <c r="B79" s="40" t="inlineStr">
         <is>
           <t>P077</t>
         </is>
       </c>
-      <c r="C79" s="35" t="inlineStr">
+      <c r="C79" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">THUMBS UP </t>
         </is>
@@ -6057,11 +6050,11 @@
         <v>0.4</v>
       </c>
       <c r="I79" s="20" t="n"/>
-      <c r="J79" s="37" t="n"/>
+      <c r="J79" s="35" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="43" t="n"/>
-      <c r="B80" s="42" t="inlineStr">
+      <c r="A80" s="39" t="n"/>
+      <c r="B80" s="40" t="inlineStr">
         <is>
           <t>P078</t>
         </is>
@@ -6089,18 +6082,18 @@
         <v>0.4</v>
       </c>
       <c r="I80" s="20" t="n"/>
-      <c r="J80" s="37" t="n">
+      <c r="J80" s="35" t="n">
         <v>8902080105045</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="43" t="n"/>
-      <c r="B81" s="42" t="inlineStr">
+      <c r="A81" s="39" t="n"/>
+      <c r="B81" s="40" t="inlineStr">
         <is>
           <t>P079</t>
         </is>
       </c>
-      <c r="C81" s="35" t="inlineStr">
+      <c r="C81" s="27" t="inlineStr">
         <is>
           <t>PEPSI ZERO SUGAR TIN</t>
         </is>
@@ -6123,11 +6116,11 @@
         <v>0.4</v>
       </c>
       <c r="I81" s="20" t="n"/>
-      <c r="J81" s="37" t="n"/>
+      <c r="J81" s="35" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="43" t="n"/>
-      <c r="B82" s="42" t="inlineStr">
+      <c r="A82" s="39" t="n"/>
+      <c r="B82" s="40" t="inlineStr">
         <is>
           <t>P080</t>
         </is>
@@ -6155,13 +6148,13 @@
         <v>0.4</v>
       </c>
       <c r="I82" s="20" t="n"/>
-      <c r="J82" s="37" t="n">
+      <c r="J82" s="35" t="n">
         <v>4897036692455</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="43" t="n"/>
-      <c r="B83" s="42" t="inlineStr">
+      <c r="A83" s="39" t="n"/>
+      <c r="B83" s="40" t="inlineStr">
         <is>
           <t>P081</t>
         </is>
@@ -6189,13 +6182,13 @@
         <v>0.4</v>
       </c>
       <c r="I83" s="20" t="n"/>
-      <c r="J83" s="37" t="n">
+      <c r="J83" s="35" t="n">
         <v>4897036691427</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="43" t="n"/>
-      <c r="B84" s="42" t="inlineStr">
+      <c r="A84" s="39" t="n"/>
+      <c r="B84" s="40" t="inlineStr">
         <is>
           <t>P083</t>
         </is>
@@ -6223,13 +6216,13 @@
         <v>0.05</v>
       </c>
       <c r="I84" s="20" t="n"/>
-      <c r="J84" s="37" t="n">
+      <c r="J84" s="35" t="n">
         <v>8901764092800</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="43" t="n"/>
-      <c r="B85" s="42" t="inlineStr">
+      <c r="A85" s="39" t="n"/>
+      <c r="B85" s="40" t="inlineStr">
         <is>
           <t>P084</t>
         </is>
@@ -6257,11 +6250,11 @@
         <v>0.05</v>
       </c>
       <c r="I85" s="20" t="n"/>
-      <c r="J85" s="37" t="n"/>
+      <c r="J85" s="35" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="43" t="n"/>
-      <c r="B86" s="42" t="inlineStr">
+      <c r="A86" s="39" t="n"/>
+      <c r="B86" s="40" t="inlineStr">
         <is>
           <t>P085</t>
         </is>
@@ -6289,11 +6282,11 @@
         <v>0.05</v>
       </c>
       <c r="I86" s="20" t="n"/>
-      <c r="J86" s="37" t="n"/>
+      <c r="J86" s="35" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="43" t="n"/>
-      <c r="B87" s="42" t="inlineStr">
+      <c r="A87" s="39" t="n"/>
+      <c r="B87" s="40" t="inlineStr">
         <is>
           <t>P086</t>
         </is>
@@ -6321,11 +6314,11 @@
         <v>0.05</v>
       </c>
       <c r="I87" s="20" t="n"/>
-      <c r="J87" s="37" t="n"/>
+      <c r="J87" s="35" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="43" t="n"/>
-      <c r="B88" s="42" t="inlineStr">
+      <c r="A88" s="39" t="n"/>
+      <c r="B88" s="40" t="inlineStr">
         <is>
           <t>P087</t>
         </is>
@@ -6353,11 +6346,11 @@
         <v>0.05</v>
       </c>
       <c r="I88" s="20" t="n"/>
-      <c r="J88" s="37" t="n"/>
+      <c r="J88" s="35" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="43" t="n"/>
-      <c r="B89" s="42" t="inlineStr">
+      <c r="A89" s="39" t="n"/>
+      <c r="B89" s="40" t="inlineStr">
         <is>
           <t>P088</t>
         </is>
@@ -6385,11 +6378,11 @@
         <v>0.05</v>
       </c>
       <c r="I89" s="20" t="n"/>
-      <c r="J89" s="37" t="n"/>
+      <c r="J89" s="35" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="43" t="n"/>
-      <c r="B90" s="42" t="inlineStr">
+      <c r="A90" s="39" t="n"/>
+      <c r="B90" s="40" t="inlineStr">
         <is>
           <t>P089</t>
         </is>
@@ -6417,11 +6410,11 @@
         <v>0.05</v>
       </c>
       <c r="I90" s="20" t="n"/>
-      <c r="J90" s="37" t="n"/>
+      <c r="J90" s="35" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="43" t="n"/>
-      <c r="B91" s="42" t="inlineStr">
+      <c r="A91" s="39" t="n"/>
+      <c r="B91" s="40" t="inlineStr">
         <is>
           <t>P090</t>
         </is>
@@ -6449,11 +6442,11 @@
         <v>0.4</v>
       </c>
       <c r="I91" s="20" t="n"/>
-      <c r="J91" s="37" t="n"/>
+      <c r="J91" s="35" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="43" t="n"/>
-      <c r="B92" s="42" t="inlineStr">
+      <c r="A92" s="39" t="n"/>
+      <c r="B92" s="40" t="inlineStr">
         <is>
           <t>P091</t>
         </is>
@@ -6481,11 +6474,11 @@
         <v>0.05</v>
       </c>
       <c r="I92" s="20" t="n"/>
-      <c r="J92" s="37" t="n"/>
+      <c r="J92" s="35" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="43" t="n"/>
-      <c r="B93" s="42" t="inlineStr">
+      <c r="A93" s="39" t="n"/>
+      <c r="B93" s="40" t="inlineStr">
         <is>
           <t>P092</t>
         </is>
@@ -6513,11 +6506,11 @@
         <v>0.05</v>
       </c>
       <c r="I93" s="20" t="n"/>
-      <c r="J93" s="37" t="n"/>
+      <c r="J93" s="35" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="43" t="n"/>
-      <c r="B94" s="42" t="inlineStr">
+      <c r="A94" s="39" t="n"/>
+      <c r="B94" s="40" t="inlineStr">
         <is>
           <t>P093</t>
         </is>
@@ -6545,11 +6538,11 @@
         <v>0.05</v>
       </c>
       <c r="I94" s="20" t="n"/>
-      <c r="J94" s="37" t="n"/>
+      <c r="J94" s="35" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="43" t="n"/>
-      <c r="B95" s="42" t="inlineStr">
+      <c r="A95" s="39" t="n"/>
+      <c r="B95" s="40" t="inlineStr">
         <is>
           <t>P094</t>
         </is>
@@ -6577,11 +6570,11 @@
         <v>0.05</v>
       </c>
       <c r="I95" s="20" t="n"/>
-      <c r="J95" s="37" t="n"/>
+      <c r="J95" s="35" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="43" t="n"/>
-      <c r="B96" s="42" t="inlineStr">
+      <c r="A96" s="39" t="n"/>
+      <c r="B96" s="40" t="inlineStr">
         <is>
           <t>P095</t>
         </is>
@@ -6609,11 +6602,11 @@
         <v>0.05</v>
       </c>
       <c r="I96" s="20" t="n"/>
-      <c r="J96" s="37" t="n"/>
+      <c r="J96" s="35" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="43" t="n"/>
-      <c r="B97" s="42" t="inlineStr">
+      <c r="A97" s="39" t="n"/>
+      <c r="B97" s="40" t="inlineStr">
         <is>
           <t>P096</t>
         </is>
@@ -6641,11 +6634,11 @@
         <v>0.05</v>
       </c>
       <c r="I97" s="20" t="n"/>
-      <c r="J97" s="37" t="n"/>
+      <c r="J97" s="35" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="43" t="n"/>
-      <c r="B98" s="42" t="inlineStr">
+      <c r="A98" s="39" t="n"/>
+      <c r="B98" s="40" t="inlineStr">
         <is>
           <t>P097</t>
         </is>
@@ -6673,11 +6666,11 @@
         <v>0.05</v>
       </c>
       <c r="I98" s="20" t="n"/>
-      <c r="J98" s="37" t="n"/>
+      <c r="J98" s="35" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="43" t="n"/>
-      <c r="B99" s="42" t="inlineStr">
+      <c r="A99" s="39" t="n"/>
+      <c r="B99" s="40" t="inlineStr">
         <is>
           <t>P099</t>
         </is>
@@ -6705,11 +6698,11 @@
         <v>0.05</v>
       </c>
       <c r="I99" s="20" t="n"/>
-      <c r="J99" s="37" t="n"/>
+      <c r="J99" s="35" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="43" t="n"/>
-      <c r="B100" s="42" t="inlineStr">
+      <c r="A100" s="39" t="n"/>
+      <c r="B100" s="40" t="inlineStr">
         <is>
           <t>P100</t>
         </is>
@@ -6737,11 +6730,11 @@
         <v>0.4</v>
       </c>
       <c r="I100" s="20" t="n"/>
-      <c r="J100" s="37" t="n"/>
+      <c r="J100" s="35" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="43" t="n"/>
-      <c r="B101" s="42" t="inlineStr">
+      <c r="A101" s="39" t="n"/>
+      <c r="B101" s="40" t="inlineStr">
         <is>
           <t>P101</t>
         </is>
@@ -6769,11 +6762,11 @@
         <v>0.4</v>
       </c>
       <c r="I101" s="20" t="n"/>
-      <c r="J101" s="37" t="n"/>
+      <c r="J101" s="35" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="43" t="n"/>
-      <c r="B102" s="42" t="inlineStr">
+      <c r="A102" s="39" t="n"/>
+      <c r="B102" s="40" t="inlineStr">
         <is>
           <t>P102</t>
         </is>
@@ -6801,16 +6794,16 @@
         <v>0.4</v>
       </c>
       <c r="I102" s="20" t="n"/>
-      <c r="J102" s="37" t="n"/>
+      <c r="J102" s="35" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="43" t="n"/>
-      <c r="B103" s="38" t="inlineStr">
+      <c r="A103" s="39" t="n"/>
+      <c r="B103" s="36" t="inlineStr">
         <is>
           <t>P103</t>
         </is>
       </c>
-      <c r="C103" s="35" t="inlineStr">
+      <c r="C103" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT SWING GUVA</t>
         </is>
@@ -6832,16 +6825,16 @@
         <v>0.05</v>
       </c>
       <c r="I103" s="20" t="n"/>
-      <c r="J103" s="37" t="n"/>
+      <c r="J103" s="35" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="43" t="n"/>
-      <c r="B104" s="38" t="inlineStr">
+      <c r="A104" s="39" t="n"/>
+      <c r="B104" s="36" t="inlineStr">
         <is>
           <t>P104</t>
         </is>
       </c>
-      <c r="C104" s="35" t="inlineStr">
+      <c r="C104" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT NATA DE COCO LYCHEE</t>
         </is>
@@ -6868,16 +6861,16 @@
         <v>0.05</v>
       </c>
       <c r="I104" s="20" t="n"/>
-      <c r="J104" s="37" t="n"/>
+      <c r="J104" s="35" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="43" t="n"/>
-      <c r="B105" s="38" t="inlineStr">
+      <c r="A105" s="39" t="n"/>
+      <c r="B105" s="36" t="inlineStr">
         <is>
           <t>P105</t>
         </is>
       </c>
-      <c r="C105" s="35" t="inlineStr">
+      <c r="C105" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT NATA DE COCO ORANGE</t>
         </is>
@@ -6904,16 +6897,16 @@
         <v>0.05</v>
       </c>
       <c r="I105" s="20" t="n"/>
-      <c r="J105" s="37" t="n"/>
+      <c r="J105" s="35" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="43" t="n"/>
-      <c r="B106" s="38" t="inlineStr">
+      <c r="A106" s="39" t="n"/>
+      <c r="B106" s="36" t="inlineStr">
         <is>
           <t>P106</t>
         </is>
       </c>
-      <c r="C106" s="35" t="inlineStr">
+      <c r="C106" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT SWING ORANGE</t>
         </is>
@@ -6940,16 +6933,16 @@
         <v>0.05</v>
       </c>
       <c r="I106" s="20" t="n"/>
-      <c r="J106" s="37" t="n"/>
+      <c r="J106" s="35" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="43" t="n"/>
-      <c r="B107" s="38" t="inlineStr">
+      <c r="A107" s="39" t="n"/>
+      <c r="B107" s="36" t="inlineStr">
         <is>
           <t>P107</t>
         </is>
       </c>
-      <c r="C107" s="35" t="inlineStr">
+      <c r="C107" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT SWING MANGO</t>
         </is>
@@ -6976,16 +6969,16 @@
         <v>0.05</v>
       </c>
       <c r="I107" s="20" t="n"/>
-      <c r="J107" s="37" t="n"/>
+      <c r="J107" s="35" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="43" t="n"/>
-      <c r="B108" s="38" t="inlineStr">
+      <c r="A108" s="39" t="n"/>
+      <c r="B108" s="36" t="inlineStr">
         <is>
           <t>P108</t>
         </is>
       </c>
-      <c r="C108" s="35" t="inlineStr">
+      <c r="C108" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT APPLE</t>
         </is>
@@ -7012,16 +7005,16 @@
         <v>0.05</v>
       </c>
       <c r="I108" s="20" t="n"/>
-      <c r="J108" s="37" t="n"/>
+      <c r="J108" s="35" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="43" t="n"/>
-      <c r="B109" s="38" t="inlineStr">
+      <c r="A109" s="39" t="n"/>
+      <c r="B109" s="36" t="inlineStr">
         <is>
           <t>P109</t>
         </is>
       </c>
-      <c r="C109" s="35" t="inlineStr">
+      <c r="C109" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT ORANGE</t>
         </is>
@@ -7048,16 +7041,16 @@
         <v>0.05</v>
       </c>
       <c r="I109" s="20" t="n"/>
-      <c r="J109" s="37" t="n"/>
+      <c r="J109" s="35" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="43" t="n"/>
-      <c r="B110" s="38" t="inlineStr">
+      <c r="A110" s="39" t="n"/>
+      <c r="B110" s="36" t="inlineStr">
         <is>
           <t>P110</t>
         </is>
       </c>
-      <c r="C110" s="35" t="inlineStr">
+      <c r="C110" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT CHILLI GUVA</t>
         </is>
@@ -7084,16 +7077,16 @@
         <v>0.05</v>
       </c>
       <c r="I110" s="20" t="n"/>
-      <c r="J110" s="37" t="n"/>
+      <c r="J110" s="35" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="43" t="n"/>
-      <c r="B111" s="38" t="inlineStr">
+      <c r="A111" s="39" t="n"/>
+      <c r="B111" s="36" t="inlineStr">
         <is>
           <t>P111</t>
         </is>
       </c>
-      <c r="C111" s="35" t="inlineStr">
+      <c r="C111" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT MIXED FRUIT</t>
         </is>
@@ -7120,16 +7113,16 @@
         <v>0.05</v>
       </c>
       <c r="I111" s="20" t="n"/>
-      <c r="J111" s="37" t="n"/>
+      <c r="J111" s="35" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="43" t="n"/>
-      <c r="B112" s="38" t="inlineStr">
+      <c r="A112" s="39" t="n"/>
+      <c r="B112" s="36" t="inlineStr">
         <is>
           <t>P112</t>
         </is>
       </c>
-      <c r="C112" s="35" t="inlineStr">
+      <c r="C112" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT MANGO</t>
         </is>
@@ -7156,16 +7149,16 @@
         <v>0.05</v>
       </c>
       <c r="I112" s="20" t="n"/>
-      <c r="J112" s="37" t="n"/>
+      <c r="J112" s="35" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="43" t="n"/>
-      <c r="B113" s="38" t="inlineStr">
+      <c r="A113" s="39" t="n"/>
+      <c r="B113" s="36" t="inlineStr">
         <is>
           <t>P113</t>
         </is>
       </c>
-      <c r="C113" s="35" t="inlineStr">
+      <c r="C113" s="27" t="inlineStr">
         <is>
           <t>PAPER BOAT LYCHEE</t>
         </is>
@@ -7192,16 +7185,16 @@
         <v>0.05</v>
       </c>
       <c r="I113" s="20" t="n"/>
-      <c r="J113" s="37" t="n"/>
+      <c r="J113" s="35" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="43" t="n"/>
-      <c r="B114" s="38" t="inlineStr">
+      <c r="A114" s="39" t="n"/>
+      <c r="B114" s="36" t="inlineStr">
         <is>
           <t>P114</t>
         </is>
       </c>
-      <c r="C114" s="35" t="inlineStr">
+      <c r="C114" s="27" t="inlineStr">
         <is>
           <t>REAL JUICE MIXED FRUIT</t>
         </is>
@@ -7228,16 +7221,16 @@
         <v>0.05</v>
       </c>
       <c r="I114" s="20" t="n"/>
-      <c r="J114" s="37" t="n"/>
+      <c r="J114" s="35" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="43" t="n"/>
-      <c r="B115" s="38" t="inlineStr">
+      <c r="A115" s="39" t="n"/>
+      <c r="B115" s="36" t="inlineStr">
         <is>
           <t>P115</t>
         </is>
       </c>
-      <c r="C115" s="35" t="inlineStr">
+      <c r="C115" s="27" t="inlineStr">
         <is>
           <t>PARLE SMOODH LAASI</t>
         </is>
@@ -7264,16 +7257,16 @@
         <v>0.05</v>
       </c>
       <c r="I115" s="20" t="n"/>
-      <c r="J115" s="37" t="n"/>
+      <c r="J115" s="35" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="43" t="n"/>
-      <c r="B116" s="38" t="inlineStr">
+      <c r="A116" s="39" t="n"/>
+      <c r="B116" s="36" t="inlineStr">
         <is>
           <t>P116</t>
         </is>
       </c>
-      <c r="C116" s="35" t="inlineStr">
+      <c r="C116" s="27" t="inlineStr">
         <is>
           <t>PARLE SMOODH TOFFEE CARAMEL</t>
         </is>
@@ -7300,16 +7293,16 @@
         <v>0.05</v>
       </c>
       <c r="I116" s="20" t="n"/>
-      <c r="J116" s="37" t="n"/>
+      <c r="J116" s="35" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="43" t="n"/>
-      <c r="B117" s="38" t="inlineStr">
+      <c r="A117" s="39" t="n"/>
+      <c r="B117" s="36" t="inlineStr">
         <is>
           <t>P117</t>
         </is>
       </c>
-      <c r="C117" s="35" t="inlineStr">
+      <c r="C117" s="27" t="inlineStr">
         <is>
           <t>PARLE SMOODH CHOCOLATE</t>
         </is>
@@ -7336,16 +7329,16 @@
         <v>0.05</v>
       </c>
       <c r="I117" s="20" t="n"/>
-      <c r="J117" s="37" t="n"/>
+      <c r="J117" s="35" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="26" t="n"/>
-      <c r="B118" s="38" t="inlineStr">
+      <c r="A118" s="41" t="n"/>
+      <c r="B118" s="36" t="inlineStr">
         <is>
           <t>P118</t>
         </is>
       </c>
-      <c r="C118" s="35" t="inlineStr">
+      <c r="C118" s="27" t="inlineStr">
         <is>
           <t>PARLE FROOTI</t>
         </is>
@@ -7372,20 +7365,20 @@
         <v>0.05</v>
       </c>
       <c r="I118" s="20" t="n"/>
-      <c r="J118" s="37" t="n"/>
+      <c r="J118" s="35" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="42" t="inlineStr">
+      <c r="A119" s="40" t="inlineStr">
         <is>
           <t>BISCUITS</t>
         </is>
       </c>
-      <c r="B119" s="38" t="inlineStr">
+      <c r="B119" s="36" t="inlineStr">
         <is>
           <t>P119</t>
         </is>
       </c>
-      <c r="C119" s="35" t="inlineStr">
+      <c r="C119" s="27" t="inlineStr">
         <is>
           <t>PARLE HIDE AND SEEK</t>
         </is>
@@ -7412,16 +7405,16 @@
         <v>0.05</v>
       </c>
       <c r="I119" s="20" t="n"/>
-      <c r="J119" s="37" t="n"/>
+      <c r="J119" s="35" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="43" t="n"/>
-      <c r="B120" s="38" t="inlineStr">
+      <c r="A120" s="39" t="n"/>
+      <c r="B120" s="36" t="inlineStr">
         <is>
           <t>P120</t>
         </is>
       </c>
-      <c r="C120" s="35" t="inlineStr">
+      <c r="C120" s="27" t="inlineStr">
         <is>
           <t>BRITANNIA LITTLE HEART</t>
         </is>
@@ -7448,16 +7441,16 @@
         <v>0.05</v>
       </c>
       <c r="I120" s="20" t="n"/>
-      <c r="J120" s="37" t="n"/>
+      <c r="J120" s="35" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="43" t="n"/>
-      <c r="B121" s="38" t="inlineStr">
+      <c r="A121" s="39" t="n"/>
+      <c r="B121" s="36" t="inlineStr">
         <is>
           <t>P121</t>
         </is>
       </c>
-      <c r="C121" s="35" t="inlineStr">
+      <c r="C121" s="27" t="inlineStr">
         <is>
           <t>NABATI WAFER PINK LAVA</t>
         </is>
@@ -7484,16 +7477,16 @@
         <v>0.05</v>
       </c>
       <c r="I121" s="20" t="n"/>
-      <c r="J121" s="37" t="n"/>
+      <c r="J121" s="35" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="43" t="n"/>
-      <c r="B122" s="38" t="inlineStr">
+      <c r="A122" s="39" t="n"/>
+      <c r="B122" s="36" t="inlineStr">
         <is>
           <t>P122</t>
         </is>
       </c>
-      <c r="C122" s="35" t="inlineStr">
+      <c r="C122" s="27" t="inlineStr">
         <is>
           <t>NABATI WAFER RICHESSE</t>
         </is>
@@ -7520,16 +7513,16 @@
         <v>0.05</v>
       </c>
       <c r="I122" s="20" t="n"/>
-      <c r="J122" s="37" t="n"/>
+      <c r="J122" s="35" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="43" t="n"/>
-      <c r="B123" s="38" t="inlineStr">
+      <c r="A123" s="39" t="n"/>
+      <c r="B123" s="36" t="inlineStr">
         <is>
           <t>P123</t>
         </is>
       </c>
-      <c r="C123" s="35" t="inlineStr">
+      <c r="C123" s="27" t="inlineStr">
         <is>
           <t>ELITE CHOCO COOKIES</t>
         </is>
@@ -7556,16 +7549,16 @@
         <v>0.05</v>
       </c>
       <c r="I123" s="20" t="n"/>
-      <c r="J123" s="37" t="n"/>
+      <c r="J123" s="35" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="43" t="n"/>
-      <c r="B124" s="38" t="inlineStr">
+      <c r="A124" s="39" t="n"/>
+      <c r="B124" s="36" t="inlineStr">
         <is>
           <t>P124</t>
         </is>
       </c>
-      <c r="C124" s="35" t="inlineStr">
+      <c r="C124" s="27" t="inlineStr">
         <is>
           <t>DARK FANTASY BOURBON</t>
         </is>
@@ -7588,16 +7581,16 @@
         <v>0.05</v>
       </c>
       <c r="I124" s="20" t="n"/>
-      <c r="J124" s="37" t="n"/>
+      <c r="J124" s="35" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="43" t="n"/>
-      <c r="B125" s="38" t="inlineStr">
+      <c r="A125" s="39" t="n"/>
+      <c r="B125" s="36" t="inlineStr">
         <is>
           <t>P125</t>
         </is>
       </c>
-      <c r="C125" s="35" t="inlineStr">
+      <c r="C125" s="27" t="inlineStr">
         <is>
           <t>MOM'S MAGIC CASHEW</t>
         </is>
@@ -7620,16 +7613,16 @@
         <v>0.05</v>
       </c>
       <c r="I125" s="20" t="n"/>
-      <c r="J125" s="37" t="n"/>
+      <c r="J125" s="35" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="43" t="n"/>
-      <c r="B126" s="38" t="inlineStr">
+      <c r="A126" s="39" t="n"/>
+      <c r="B126" s="36" t="inlineStr">
         <is>
           <t>P126</t>
         </is>
       </c>
-      <c r="C126" s="35" t="inlineStr">
+      <c r="C126" s="27" t="inlineStr">
         <is>
           <t>BRITANNIA JIM JAM</t>
         </is>
@@ -7651,16 +7644,16 @@
         <v>0.05</v>
       </c>
       <c r="I126" s="20" t="n"/>
-      <c r="J126" s="37" t="n"/>
+      <c r="J126" s="35" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="43" t="n"/>
-      <c r="B127" s="38" t="inlineStr">
+      <c r="A127" s="39" t="n"/>
+      <c r="B127" s="36" t="inlineStr">
         <is>
           <t>P127</t>
         </is>
       </c>
-      <c r="C127" s="35" t="inlineStr">
+      <c r="C127" s="27" t="inlineStr">
         <is>
           <t>DARK FANTACY CHOCOLATE</t>
         </is>
@@ -7687,16 +7680,16 @@
         <v>0.05</v>
       </c>
       <c r="I127" s="20" t="n"/>
-      <c r="J127" s="37" t="n"/>
+      <c r="J127" s="35" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="26" t="n"/>
-      <c r="B128" s="38" t="inlineStr">
+      <c r="A128" s="41" t="n"/>
+      <c r="B128" s="36" t="inlineStr">
         <is>
           <t>P128</t>
         </is>
       </c>
-      <c r="C128" s="35" t="inlineStr">
+      <c r="C128" s="27" t="inlineStr">
         <is>
           <t>DARK FANTACY VANILLA</t>
         </is>
@@ -7723,20 +7716,20 @@
         <v>0.05</v>
       </c>
       <c r="I128" s="20" t="n"/>
-      <c r="J128" s="37" t="n"/>
+      <c r="J128" s="35" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="39" t="inlineStr">
+      <c r="A129" s="38" t="inlineStr">
         <is>
           <t>SWEETS</t>
         </is>
       </c>
-      <c r="B129" s="38" t="inlineStr">
+      <c r="B129" s="36" t="inlineStr">
         <is>
           <t>P129</t>
         </is>
       </c>
-      <c r="C129" s="35" t="inlineStr">
+      <c r="C129" s="27" t="inlineStr">
         <is>
           <t>BRITANNIA TREAT CROISSANT MIXED FRUIT</t>
         </is>
@@ -7763,16 +7756,16 @@
         <v>0.05</v>
       </c>
       <c r="I129" s="20" t="n"/>
-      <c r="J129" s="37" t="n"/>
+      <c r="J129" s="35" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="43" t="n"/>
-      <c r="B130" s="38" t="inlineStr">
+      <c r="A130" s="39" t="n"/>
+      <c r="B130" s="36" t="inlineStr">
         <is>
           <t>P130</t>
         </is>
       </c>
-      <c r="C130" s="35" t="inlineStr">
+      <c r="C130" s="27" t="inlineStr">
         <is>
           <t>BRITANNIA TRAT CROISSANT VANILLA</t>
         </is>
@@ -7799,16 +7792,16 @@
         <v>0.05</v>
       </c>
       <c r="I130" s="20" t="n"/>
-      <c r="J130" s="37" t="n"/>
+      <c r="J130" s="35" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="43" t="n"/>
-      <c r="B131" s="38" t="inlineStr">
+      <c r="A131" s="39" t="n"/>
+      <c r="B131" s="36" t="inlineStr">
         <is>
           <t>P131</t>
         </is>
       </c>
-      <c r="C131" s="35" t="inlineStr">
+      <c r="C131" s="27" t="inlineStr">
         <is>
           <t>BRIRANNIA TREA CROISSANT CHOCO CREME</t>
         </is>
@@ -7835,16 +7828,16 @@
         <v>0.05</v>
       </c>
       <c r="I131" s="20" t="n"/>
-      <c r="J131" s="37" t="n"/>
+      <c r="J131" s="35" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="43" t="n"/>
-      <c r="B132" s="38" t="inlineStr">
+      <c r="A132" s="39" t="n"/>
+      <c r="B132" s="36" t="inlineStr">
         <is>
           <t>P132</t>
         </is>
       </c>
-      <c r="C132" s="35" t="inlineStr">
+      <c r="C132" s="27" t="inlineStr">
         <is>
           <t>BAULI MOONFILLS STRAWBERRY</t>
         </is>
@@ -7871,16 +7864,16 @@
         <v>0.05</v>
       </c>
       <c r="I132" s="20" t="n"/>
-      <c r="J132" s="37" t="n"/>
+      <c r="J132" s="35" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="43" t="n"/>
-      <c r="B133" s="38" t="inlineStr">
+      <c r="A133" s="39" t="n"/>
+      <c r="B133" s="36" t="inlineStr">
         <is>
           <t>P133</t>
         </is>
       </c>
-      <c r="C133" s="35" t="inlineStr">
+      <c r="C133" s="27" t="inlineStr">
         <is>
           <t>ELITE BROWINE</t>
         </is>
@@ -7907,16 +7900,16 @@
         <v>0.05</v>
       </c>
       <c r="I133" s="20" t="n"/>
-      <c r="J133" s="37" t="n"/>
+      <c r="J133" s="35" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="43" t="n"/>
-      <c r="B134" s="38" t="inlineStr">
+      <c r="A134" s="39" t="n"/>
+      <c r="B134" s="36" t="inlineStr">
         <is>
           <t>P134</t>
         </is>
       </c>
-      <c r="C134" s="35" t="inlineStr">
+      <c r="C134" s="27" t="inlineStr">
         <is>
           <t>BAULI MOONFILLS CHOCO</t>
         </is>
@@ -7943,16 +7936,16 @@
         <v>0.05</v>
       </c>
       <c r="I134" s="20" t="n"/>
-      <c r="J134" s="37" t="n"/>
+      <c r="J134" s="35" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="43" t="n"/>
-      <c r="B135" s="38" t="inlineStr">
+      <c r="A135" s="39" t="n"/>
+      <c r="B135" s="36" t="inlineStr">
         <is>
           <t>P135</t>
         </is>
       </c>
-      <c r="C135" s="35" t="inlineStr">
+      <c r="C135" s="27" t="inlineStr">
         <is>
           <t>BRITANNIA TREAT TRIPLE CHOCOLATE</t>
         </is>
@@ -7979,16 +7972,16 @@
         <v>0.05</v>
       </c>
       <c r="I135" s="20" t="n"/>
-      <c r="J135" s="37" t="n"/>
+      <c r="J135" s="35" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="43" t="n"/>
-      <c r="B136" s="38" t="inlineStr">
+      <c r="A136" s="39" t="n"/>
+      <c r="B136" s="36" t="inlineStr">
         <is>
           <t>P136</t>
         </is>
       </c>
-      <c r="C136" s="35" t="inlineStr">
+      <c r="C136" s="27" t="inlineStr">
         <is>
           <t>BAULI MOONFILL VANILLA</t>
         </is>
@@ -8015,16 +8008,16 @@
         <v>0.05</v>
       </c>
       <c r="I136" s="20" t="n"/>
-      <c r="J136" s="37" t="n"/>
+      <c r="J136" s="35" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="43" t="n"/>
-      <c r="B137" s="38" t="inlineStr">
+      <c r="A137" s="39" t="n"/>
+      <c r="B137" s="36" t="inlineStr">
         <is>
           <t>P137</t>
         </is>
       </c>
-      <c r="C137" s="35" t="inlineStr">
+      <c r="C137" s="27" t="inlineStr">
         <is>
           <t>RAAJALI FILLED MUFFIN BANANA</t>
         </is>
@@ -8051,16 +8044,16 @@
         <v>0.05</v>
       </c>
       <c r="I137" s="20" t="n"/>
-      <c r="J137" s="37" t="n"/>
+      <c r="J137" s="35" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="43" t="n"/>
-      <c r="B138" s="38" t="inlineStr">
+      <c r="A138" s="39" t="n"/>
+      <c r="B138" s="36" t="inlineStr">
         <is>
           <t>P138</t>
         </is>
       </c>
-      <c r="C138" s="35" t="inlineStr">
+      <c r="C138" s="27" t="inlineStr">
         <is>
           <t>RAAJALI FILLED MUFFIN STRAWBERRY</t>
         </is>
@@ -8087,16 +8080,16 @@
         <v>0.05</v>
       </c>
       <c r="I138" s="20" t="n"/>
-      <c r="J138" s="37" t="n"/>
+      <c r="J138" s="35" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="43" t="n"/>
-      <c r="B139" s="38" t="inlineStr">
+      <c r="A139" s="39" t="n"/>
+      <c r="B139" s="36" t="inlineStr">
         <is>
           <t>P139</t>
         </is>
       </c>
-      <c r="C139" s="35" t="inlineStr">
+      <c r="C139" s="27" t="inlineStr">
         <is>
           <t>RAAJALI FILLED MUFFIN VANILLA</t>
         </is>
@@ -8123,16 +8116,16 @@
         <v>0.05</v>
       </c>
       <c r="I139" s="20" t="n"/>
-      <c r="J139" s="37" t="n"/>
+      <c r="J139" s="35" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="43" t="n"/>
-      <c r="B140" s="38" t="inlineStr">
+      <c r="A140" s="39" t="n"/>
+      <c r="B140" s="36" t="inlineStr">
         <is>
           <t>P140</t>
         </is>
       </c>
-      <c r="C140" s="35" t="inlineStr">
+      <c r="C140" s="27" t="inlineStr">
         <is>
           <t>GAIA SPORT GRAOLA BAR CHOCOLATE</t>
         </is>
@@ -8159,16 +8152,16 @@
         <v>0.18</v>
       </c>
       <c r="I140" s="20" t="n"/>
-      <c r="J140" s="37" t="n"/>
+      <c r="J140" s="35" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="43" t="n"/>
-      <c r="B141" s="38" t="inlineStr">
+      <c r="A141" s="39" t="n"/>
+      <c r="B141" s="36" t="inlineStr">
         <is>
           <t>P141</t>
         </is>
       </c>
-      <c r="C141" s="35" t="inlineStr">
+      <c r="C141" s="27" t="inlineStr">
         <is>
           <t>DAIRY MILK FRUIT AND NUT</t>
         </is>
@@ -8195,16 +8188,16 @@
         <v>0.18</v>
       </c>
       <c r="I141" s="20" t="n"/>
-      <c r="J141" s="37" t="n"/>
+      <c r="J141" s="35" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="43" t="n"/>
-      <c r="B142" s="38" t="inlineStr">
+      <c r="A142" s="39" t="n"/>
+      <c r="B142" s="36" t="inlineStr">
         <is>
           <t>P142</t>
         </is>
       </c>
-      <c r="C142" s="35" t="inlineStr">
+      <c r="C142" s="27" t="inlineStr">
         <is>
           <t>KITKAT</t>
         </is>
@@ -8231,7 +8224,7 @@
         <v>0.18</v>
       </c>
       <c r="I142" s="20" t="n"/>
-      <c r="J142" s="37" t="n"/>
+      <c r="J142" s="35" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8253,7 +8246,7 @@
   </sheetPr>
   <dimension ref="A2:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9380,8 +9373,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -9696,17 +9689,17 @@
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="31" t="n"/>
       <c r="N2" s="31" t="n"/>
-      <c r="O2" s="34" t="inlineStr">
+      <c r="O2" s="33" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="P2" s="36" t="inlineStr">
+      <c r="P2" s="34" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q2" s="36" t="n"/>
+      <c r="Q2" s="34" t="n"/>
     </row>
     <row r="3" ht="14.4" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -9741,17 +9734,17 @@
       <c r="L3" s="5" t="n"/>
       <c r="M3" s="31" t="n"/>
       <c r="N3" s="31" t="n"/>
-      <c r="O3" s="34" t="inlineStr">
+      <c r="O3" s="33" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="P3" s="36" t="inlineStr">
+      <c r="P3" s="34" t="inlineStr">
         <is>
           <t>Exempted</t>
         </is>
       </c>
-      <c r="Q3" s="36" t="n"/>
+      <c r="Q3" s="34" t="n"/>
     </row>
     <row r="4" ht="14.4" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -9786,13 +9779,13 @@
       <c r="L4" s="5" t="n"/>
       <c r="M4" s="31" t="n"/>
       <c r="N4" s="31" t="n"/>
-      <c r="O4" s="34" t="n"/>
-      <c r="P4" s="36" t="inlineStr">
+      <c r="O4" s="33" t="n"/>
+      <c r="P4" s="34" t="inlineStr">
         <is>
           <t>GST@0%</t>
         </is>
       </c>
-      <c r="Q4" s="36" t="n"/>
+      <c r="Q4" s="34" t="n"/>
     </row>
     <row r="5" ht="14.4" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -9827,13 +9820,13 @@
       <c r="L5" s="5" t="n"/>
       <c r="M5" s="31" t="n"/>
       <c r="N5" s="31" t="n"/>
-      <c r="O5" s="34" t="n"/>
-      <c r="P5" s="36" t="inlineStr">
+      <c r="O5" s="33" t="n"/>
+      <c r="P5" s="34" t="inlineStr">
         <is>
           <t>GST@0.25%</t>
         </is>
       </c>
-      <c r="Q5" s="36" t="n"/>
+      <c r="Q5" s="34" t="n"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -9868,13 +9861,13 @@
       <c r="L6" s="5" t="n"/>
       <c r="M6" s="31" t="n"/>
       <c r="N6" s="31" t="n"/>
-      <c r="O6" s="34" t="n"/>
-      <c r="P6" s="36" t="inlineStr">
+      <c r="O6" s="33" t="n"/>
+      <c r="P6" s="34" t="inlineStr">
         <is>
           <t>GST@3%</t>
         </is>
       </c>
-      <c r="Q6" s="36" t="n"/>
+      <c r="Q6" s="34" t="n"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -9907,13 +9900,13 @@
       <c r="L7" s="5" t="n"/>
       <c r="M7" s="31" t="n"/>
       <c r="N7" s="31" t="n"/>
-      <c r="O7" s="34" t="n"/>
-      <c r="P7" s="36" t="inlineStr">
+      <c r="O7" s="33" t="n"/>
+      <c r="P7" s="34" t="inlineStr">
         <is>
           <t>GST@5%</t>
         </is>
       </c>
-      <c r="Q7" s="36" t="n"/>
+      <c r="Q7" s="34" t="n"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -9939,34 +9932,34 @@
         </is>
       </c>
       <c r="K8" s="5" t="n"/>
-      <c r="L8" s="26" t="n"/>
-      <c r="M8" s="26" t="n"/>
-      <c r="N8" s="26" t="n"/>
+      <c r="L8" s="41" t="n"/>
+      <c r="M8" s="41" t="n"/>
+      <c r="N8" s="41" t="n"/>
       <c r="O8" s="32" t="n"/>
-      <c r="P8" s="36" t="inlineStr">
+      <c r="P8" s="34" t="inlineStr">
         <is>
           <t>GST@12%</t>
         </is>
       </c>
-      <c r="Q8" s="36" t="n"/>
+      <c r="Q8" s="34" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="E9" s="5" t="n"/>
-      <c r="I9" s="35" t="n"/>
-      <c r="P9" s="36" t="inlineStr">
+      <c r="I9" s="27" t="n"/>
+      <c r="P9" s="34" t="inlineStr">
         <is>
           <t>GST@18%</t>
         </is>
       </c>
-      <c r="Q9" s="36" t="n"/>
+      <c r="Q9" s="34" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="P10" s="36" t="inlineStr">
+      <c r="P10" s="34" t="inlineStr">
         <is>
           <t>GST@28%</t>
         </is>
       </c>
-      <c r="Q10" s="36" t="n"/>
+      <c r="Q10" s="34" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="M11" t="inlineStr">
@@ -9974,12 +9967,12 @@
           <t xml:space="preserve">B and M column to be mapped along with GST % value </t>
         </is>
       </c>
-      <c r="P11" s="36" t="inlineStr">
+      <c r="P11" s="34" t="inlineStr">
         <is>
           <t>GST@40%</t>
         </is>
       </c>
-      <c r="Q11" s="36" t="n"/>
+      <c r="Q11" s="34" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10229,7 +10222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10238,32 +10231,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="inlineStr">
+      <c r="A1" s="43" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="43" t="inlineStr">
         <is>
           <t>Refiller_ID</t>
         </is>
       </c>
-      <c r="C1" s="44" t="inlineStr">
+      <c r="C1" s="43" t="inlineStr">
         <is>
           <t>Machine_ID</t>
         </is>
       </c>
-      <c r="D1" s="44" t="inlineStr">
+      <c r="D1" s="43" t="inlineStr">
         <is>
           <t>Product_ID</t>
         </is>
       </c>
-      <c r="E1" s="44" t="inlineStr">
+      <c r="E1" s="43" t="inlineStr">
         <is>
           <t>Cover count</t>
         </is>
       </c>
-      <c r="F1" s="44" t="inlineStr">
+      <c r="F1" s="43" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
@@ -10396,6 +10389,32 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VM003</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P010</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>50</v>
       </c>
     </row>
@@ -10474,7 +10493,7 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="35" t="n">
+      <c r="E2" s="27" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
@@ -10500,7 +10519,7 @@
       <c r="D3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="27" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
@@ -10526,7 +10545,7 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="35" t="n">
+      <c r="E4" s="27" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
@@ -10552,7 +10571,7 @@
       <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="35" t="n">
+      <c r="E5" s="27" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
@@ -10560,7 +10579,7 @@
       </c>
     </row>
     <row r="10" ht="28.8" customHeight="1">
-      <c r="D10" s="36" t="inlineStr">
+      <c r="D10" s="34" t="inlineStr">
         <is>
           <t xml:space="preserve">Alert notification - low ,moderate </t>
         </is>
